--- a/biology/Médecine/Comité_de_surveillance_et_de_suivi/Comité_de_surveillance_et_de_suivi.xlsx
+++ b/biology/Médecine/Comité_de_surveillance_et_de_suivi/Comité_de_surveillance_et_de_suivi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_et_de_suivi</t>
+          <t>Comité_de_surveillance_et_de_suivi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un comité de surveillance et de suivi (appelé en anglais : Data Monitoring Committee, DMC ou Data and Safety Monitoring Board, DSMB) est un groupe indépendant d’experts chargé de surveiller les données d'un essai clinique concernant la sécurité des patients et l’efficacité du traitement. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_et_de_suivi</t>
+          <t>Comité_de_surveillance_et_de_suivi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Utilité du comité de surveillance et de suivi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux essais cliniques (en particulier les essais de phase III sur l’efficacité des traitements et qui servent à l’enregistrement du produit auprès des autorités) sont conduits en « double aveugle ». Cela signifie que tous les participants à l’essai ignorent le contenu du produit administré aux différents patients (en général le produit testé est comparé au médicament de référence pour une maladie donnée, le « comparateur »), aussi bien le patient que le médecin et tout le personnel soignant. Ce processus de double-aveugle est essentiel pour garantir l’exploitabilité des résultats de l’étude. La « levée d’aveugle » ou « levée d’insu » ne s’effectue normalement qu’après la fin de l’étude, et les données sont alors attribuées aux patients selon les traitements reçus.
 Ce processus de double-aveugle scientifiquement nécessaire a parfois des inconvénients pratiques peu acceptables.  S'il y a une nette absence d'efficacité du nouveau médicament, ou s'il donne beaucoup d’effets indésirables; à l'inverse, il peut avoir une efficacité très supérieure à ce qui était prévisible, ce qui devrait conduire à l’administration du nouveau médicament à tous les patients (pour leur éviter une « perte de chance » de recevoir le meilleur traitement).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_et_de_suivi</t>
+          <t>Comité_de_surveillance_et_de_suivi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce DSMB est un groupe de quelques experts indépendants du laboratoire promoteur de l’essai. Les membres du DSMB peuvent comprendre un statisticien, des cliniciens spécialistes de la maladie en question, mais aussi des cliniciens spécialisés dans les effets indésirables les plus attendus (par exemple des néphrologues, des cardiologues). 
 Le DSMB a le pouvoir d’émettre des recommandations pour l’arrêt d’un essai sur la base de l’évaluation des résultats. Trois causes peuvent classiquement requérir l’arrêt d’un essai : des raisons de sécurité des patients, une inefficacité par rapport au traitement de référence, ou un bénéfice clinique très supérieur au traitement de référence. 
